--- a/数据整理/stocks/A股/上证主板/600973-宝胜股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600973-宝胜股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,13 +635,215 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007316</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007317</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015576</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.65</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600973-宝胜股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600973-宝胜股份.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,37 +463,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -503,36 +483,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>202027</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方高端装备灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21.56</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.68</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5412</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -541,36 +499,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005207</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方高端装备灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.68</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1077</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>
@@ -790,7 +726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,17 +737,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -821,14 +777,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5412</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -837,14 +815,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.65</v>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600973-宝胜股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600973-宝胜股份.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -515,6 +532,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -720,7 +907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600973-宝胜股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600973-宝胜股份.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.18</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -532,6 +549,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2013</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1733</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012127</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012126</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015576</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -701,7 +1230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -907,7 +1436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
